--- a/Tests/Aqueous/dbimport/Co-Dia-Na-K-Cl-OH.xlsx
+++ b/Tests/Aqueous/dbimport/Co-Dia-Na-K-Cl-OH.xlsx
@@ -1975,8 +1975,8 @@
   </sheetPr>
   <dimension ref="A1:AH413"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A389" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I408" activeCellId="0" pane="topLeft" sqref="I408:K413"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A391" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E393" activeCellId="0" pane="topLeft" sqref="E393"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -26013,7 +26013,7 @@
         <v>430</v>
       </c>
       <c r="E389" s="26" t="n">
-        <v>184.5</v>
+        <v>184</v>
       </c>
       <c r="F389" s="1" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>431</v>
       </c>
       <c r="E390" s="15" t="n">
-        <v>208.5</v>
+        <v>109</v>
       </c>
       <c r="F390" s="1" t="n">
         <v>0</v>
@@ -26135,7 +26135,7 @@
         <v>432</v>
       </c>
       <c r="E391" s="15" t="n">
-        <v>226.5</v>
+        <v>227</v>
       </c>
       <c r="F391" s="1" t="n">
         <v>0</v>
@@ -27645,7 +27645,7 @@
   <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A5" activeCellId="1" pane="topLeft" sqref="I408:K413 A5"/>
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -27756,7 +27756,7 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="I408:K413 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -28073,7 +28073,7 @@
   <dimension ref="A1:AC75"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A69" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A75" activeCellId="1" pane="topLeft" sqref="I408:K413 A75"/>
+      <selection activeCell="A75" activeCellId="0" pane="topLeft" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <cols>
